--- a/data.lab3.4.5.xlsx
+++ b/data.lab3.4.5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korab\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korab\Downloads\data.lab3.4.5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -98,7 +98,7 @@
     <t>подавали 6.3В, если не ошибаюсь</t>
   </si>
   <si>
-    <t>update 10:10</t>
+    <t>update 10:20</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data.lab3.4.5.xlsx
+++ b/data.lab3.4.5.xlsx
@@ -98,7 +98,7 @@
     <t>подавали 6.3В, если не ошибаюсь</t>
   </si>
   <si>
-    <t>update 10:20</t>
+    <t>update 10:22</t>
   </si>
 </sst>
 </file>

--- a/data.lab3.4.5.xlsx
+++ b/data.lab3.4.5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Uвх, В</t>
   </si>
@@ -44,36 +44,6 @@
     <t>пермаллой</t>
   </si>
   <si>
-    <t>H_max</t>
-  </si>
-  <si>
-    <t>B_s</t>
-  </si>
-  <si>
-    <t>H_c</t>
-  </si>
-  <si>
-    <t>B_r</t>
-  </si>
-  <si>
-    <t>K_x</t>
-  </si>
-  <si>
-    <t>K_y</t>
-  </si>
-  <si>
-    <t>2X_s</t>
-  </si>
-  <si>
-    <t>2Y_s</t>
-  </si>
-  <si>
-    <t>k_1</t>
-  </si>
-  <si>
-    <t>k_2</t>
-  </si>
-  <si>
     <t>H=k_1*I</t>
   </si>
   <si>
@@ -99,6 +69,69 @@
   </si>
   <si>
     <t>update 10:22</t>
+  </si>
+  <si>
+    <t>k_1 = N_0/(2* pi * R)</t>
+  </si>
+  <si>
+    <t>k_1, (1/м)</t>
+  </si>
+  <si>
+    <t>k_2, с/м^2</t>
+  </si>
+  <si>
+    <t>H_max, А/м</t>
+  </si>
+  <si>
+    <t>H_c, А/м</t>
+  </si>
+  <si>
+    <t>B_s,Тл</t>
+  </si>
+  <si>
+    <t>B_r,Тл</t>
+  </si>
+  <si>
+    <t>K_x,мВ/дел</t>
+  </si>
+  <si>
+    <t>K_x =&gt; из калибровки</t>
+  </si>
+  <si>
+    <t>k_2 = R_и*C_и/(S*N_u)</t>
+  </si>
+  <si>
+    <t>H/дел, А/(м*дел)</t>
+  </si>
+  <si>
+    <t>B/дел, Т/дел</t>
+  </si>
+  <si>
+    <t>2X_s,дел</t>
+  </si>
+  <si>
+    <t>2Y_s,дел</t>
+  </si>
+  <si>
+    <t>K_y,мВ/дел</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>K_y =&gt; из масштаба, который мы сами выставили на осциллографе</t>
+  </si>
+  <si>
+    <t>x, дел</t>
+  </si>
+  <si>
+    <t>y, дел</t>
+  </si>
+  <si>
+    <t>для трех графиков начальных кривых намагничивания</t>
+  </si>
+  <si>
+    <t>кремн.железо</t>
   </si>
 </sst>
 </file>
@@ -110,7 +143,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +168,24 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +202,24 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -163,27 +230,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
+    <cellStyle name="40% — акцент2" xfId="4" builtinId="35"/>
+    <cellStyle name="60% — акцент2" xfId="5" builtinId="36"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="2" builtinId="27"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
@@ -464,63 +542,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" customWidth="1"/>
+    <col min="15" max="15" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="E1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="7"/>
       <c r="D2" t="s">
         <v>2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="F2" s="5">
+        <f>P2*3.4</f>
+        <v>0.11220000000000001</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="H2" s="5">
+        <f>1.4*P2</f>
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>10</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="9">
+        <v>160</v>
+      </c>
+      <c r="N2" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="P2" s="2">
+        <f>N2*J2*0.001</f>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -571,46 +699,49 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2.64</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>1.9800000000000002E-2</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
+        <v>9.8400000000000001E-2</v>
+      </c>
+      <c r="F4" s="3">
         <v>8.77E-2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>2.9399999999999999E-2</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="3">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
@@ -630,58 +761,103 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>15</v>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
+      <c r="E7" s="2">
+        <v>45</v>
+      </c>
+      <c r="F7" s="5">
+        <f>P7*2.4</f>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="G7" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="H7" s="5">
+        <f>P7*2</f>
+        <v>0.96</v>
+      </c>
+      <c r="I7" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="J7" s="2">
+        <v>100</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="2">
+        <v>145.80000000000001</v>
+      </c>
+      <c r="N7" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="O7" s="2">
+        <v>9</v>
+      </c>
+      <c r="P7" s="5">
+        <f>J7*0.001*N7</f>
+        <v>0.48</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -724,38 +900,47 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9">
+        <v>198.5</v>
+      </c>
+      <c r="F9" s="4">
         <v>181.32</v>
       </c>
-      <c r="F9" s="4">
+      <c r="G9" s="4">
         <v>165.25</v>
       </c>
-      <c r="G9" s="4">
+      <c r="H9" s="4">
         <v>150</v>
       </c>
-      <c r="H9" s="4">
+      <c r="I9" s="4">
         <v>134.5</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>120.5</v>
       </c>
-      <c r="J9" s="4">
+      <c r="K9" s="4">
         <v>102.9</v>
       </c>
-      <c r="K9" s="4">
+      <c r="L9" s="4">
         <v>83.8</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="4">
         <v>60.8</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>42.82</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -772,42 +957,87 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" t="s">
         <v>14</v>
       </c>
-      <c r="N11" t="s">
-        <v>15</v>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="E12" s="2">
+        <v>513.70000000000005</v>
+      </c>
+      <c r="F12" s="2">
+        <f>2.4*P12</f>
+        <v>1.992</v>
+      </c>
+      <c r="G12" s="9">
+        <v>50</v>
+      </c>
+      <c r="H12" s="2">
+        <f>P12*0.8</f>
+        <v>0.66400000000000015</v>
+      </c>
+      <c r="I12" s="2">
+        <v>94</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="2">
+        <v>400</v>
+      </c>
+      <c r="N12" s="2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="O12" s="2">
+        <v>125.3</v>
+      </c>
+      <c r="P12" s="5">
+        <f>J12*0.001*N12</f>
+        <v>0.83000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -886,10 +1116,182 @@
         <v>61</v>
       </c>
     </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D21" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="11"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="11"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D28" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.lab3.4.5.xlsx
+++ b/data.lab3.4.5.xlsx
@@ -68,9 +68,6 @@
     <t>подавали 6.3В, если не ошибаюсь</t>
   </si>
   <si>
-    <t>update 10:22</t>
-  </si>
-  <si>
     <t>k_1 = N_0/(2* pi * R)</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>кремн.железо</t>
+  </si>
+  <si>
+    <t>update 12:25</t>
   </si>
 </sst>
 </file>
@@ -246,17 +246,17 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% — акцент2" xfId="3" builtinId="34"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,52 +562,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="12"/>
       <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="12"/>
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -635,9 +635,9 @@
         <v>10</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="9">
+        <v>29</v>
+      </c>
+      <c r="M2" s="7">
         <v>160</v>
       </c>
       <c r="N2" s="2">
@@ -761,45 +761,45 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="13"/>
       <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="O6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -836,7 +836,7 @@
         <v>10</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M7" s="2">
         <v>145.80000000000001</v>
@@ -901,7 +901,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>4</v>
@@ -939,7 +939,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -957,43 +957,43 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="J11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L11" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="O11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1007,7 +1007,7 @@
         <f>2.4*P12</f>
         <v>1.992</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>50</v>
       </c>
       <c r="H12" s="2">
@@ -1024,7 +1024,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12" s="2">
         <v>400</v>
@@ -1118,174 +1118,174 @@
     </row>
     <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="D18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D27" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D21" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-    </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D22" s="11" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D29" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-    </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-    </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D25" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
-      <c r="D29" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
